--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H2">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I2">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J2">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.668351</v>
+        <v>0.8596446666666667</v>
       </c>
       <c r="N2">
-        <v>2.005053</v>
+        <v>2.578934</v>
       </c>
       <c r="O2">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="P2">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="Q2">
-        <v>0.477264770643</v>
+        <v>0.118765068568</v>
       </c>
       <c r="R2">
-        <v>4.295382935787</v>
+        <v>1.068885617112</v>
       </c>
       <c r="S2">
-        <v>6.462516707085445E-05</v>
+        <v>1.591242779319743E-05</v>
       </c>
       <c r="T2">
-        <v>6.462516707085446E-05</v>
+        <v>1.591242779319744E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H3">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I3">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J3">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.307949</v>
       </c>
       <c r="O3">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713033</v>
       </c>
       <c r="P3">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713032</v>
       </c>
       <c r="Q3">
-        <v>7.452262408419</v>
+        <v>1.441793667348</v>
       </c>
       <c r="R3">
-        <v>67.070361675771</v>
+        <v>12.976143006132</v>
       </c>
       <c r="S3">
-        <v>0.001009091248346448</v>
+        <v>0.00019317496214157</v>
       </c>
       <c r="T3">
-        <v>0.001009091248346448</v>
+        <v>0.00019317496214157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H4">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I4">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J4">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>14.897188</v>
       </c>
       <c r="O4">
-        <v>0.3090049634734897</v>
+        <v>0.3053699228996285</v>
       </c>
       <c r="P4">
-        <v>0.3090049634734898</v>
+        <v>0.3053699228996284</v>
       </c>
       <c r="Q4">
-        <v>3.545992556828</v>
+        <v>0.686045301776</v>
       </c>
       <c r="R4">
-        <v>31.913933011452</v>
+        <v>6.174407715984</v>
       </c>
       <c r="S4">
-        <v>0.0004801535238150453</v>
+        <v>9.191798951492644E-05</v>
       </c>
       <c r="T4">
-        <v>0.0004801535238150454</v>
+        <v>9.191798951492644E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1360.232666</v>
       </c>
       <c r="I5">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J5">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.668351</v>
+        <v>0.8596446666666667</v>
       </c>
       <c r="N5">
-        <v>2.005053</v>
+        <v>2.578934</v>
       </c>
       <c r="O5">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="P5">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="Q5">
-        <v>303.0376208512553</v>
+        <v>389.7722522508938</v>
       </c>
       <c r="R5">
-        <v>2727.338587661298</v>
+        <v>3507.950270258044</v>
       </c>
       <c r="S5">
-        <v>0.04103352705015722</v>
+        <v>0.05222261810241911</v>
       </c>
       <c r="T5">
-        <v>0.04103352705015723</v>
+        <v>0.05222261810241911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1360.232666</v>
       </c>
       <c r="I6">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J6">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>31.307949</v>
       </c>
       <c r="O6">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713033</v>
       </c>
       <c r="P6">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713032</v>
       </c>
       <c r="Q6">
-        <v>4731.788326140226</v>
+        <v>4731.788326140225</v>
       </c>
       <c r="R6">
-        <v>42586.09493526203</v>
+        <v>42586.09493526202</v>
       </c>
       <c r="S6">
-        <v>0.6407190095106925</v>
+        <v>0.6339763112189044</v>
       </c>
       <c r="T6">
-        <v>0.6407190095106926</v>
+        <v>0.6339763112189044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1360.232666</v>
       </c>
       <c r="I7">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J7">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>14.897188</v>
       </c>
       <c r="O7">
-        <v>0.3090049634734897</v>
+        <v>0.3053699228996285</v>
       </c>
       <c r="P7">
-        <v>0.3090049634734898</v>
+        <v>0.3053699228996284</v>
       </c>
       <c r="Q7">
         <v>2251.5157499048</v>
@@ -880,10 +880,10 @@
         <v>20263.64174914321</v>
       </c>
       <c r="S7">
-        <v>0.3048718247194849</v>
+        <v>0.3016634623933535</v>
       </c>
       <c r="T7">
-        <v>0.304871824719485</v>
+        <v>0.3016634623933535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H8">
         <v>16.298357</v>
       </c>
       <c r="I8">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J8">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.668351</v>
+        <v>0.8596446666666667</v>
       </c>
       <c r="N8">
-        <v>2.005053</v>
+        <v>2.578934</v>
       </c>
       <c r="O8">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="P8">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="Q8">
-        <v>3.631007733102333</v>
+        <v>4.670265223493113</v>
       </c>
       <c r="R8">
-        <v>32.679069597921</v>
+        <v>42.03238701143801</v>
       </c>
       <c r="S8">
-        <v>0.0004916652051882272</v>
+        <v>0.000625733298856013</v>
       </c>
       <c r="T8">
-        <v>0.0004916652051882273</v>
+        <v>0.000625733298856013</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H9">
         <v>16.298357</v>
       </c>
       <c r="I9">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J9">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>31.307949</v>
       </c>
       <c r="O9">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713033</v>
       </c>
       <c r="P9">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713032</v>
       </c>
       <c r="Q9">
         <v>56.696458859977</v>
@@ -1004,10 +1004,10 @@
         <v>510.268129739793</v>
       </c>
       <c r="S9">
-        <v>0.007677118345054995</v>
+        <v>0.007596327090257375</v>
       </c>
       <c r="T9">
-        <v>0.007677118345054995</v>
+        <v>0.007596327090257374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H10">
         <v>16.298357</v>
       </c>
       <c r="I10">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J10">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>14.897188</v>
       </c>
       <c r="O10">
-        <v>0.3090049634734897</v>
+        <v>0.3053699228996285</v>
       </c>
       <c r="P10">
-        <v>0.3090049634734898</v>
+        <v>0.3053699228996284</v>
       </c>
       <c r="Q10">
-        <v>26.97774314667955</v>
+        <v>26.97774314667956</v>
       </c>
       <c r="R10">
         <v>242.799688320116</v>
       </c>
       <c r="S10">
-        <v>0.003652985230189723</v>
+        <v>0.003614542516760107</v>
       </c>
       <c r="T10">
-        <v>0.003652985230189724</v>
+        <v>0.003614542516760107</v>
       </c>
     </row>
   </sheetData>
